--- a/src/com/data/Test Cases Plumbing.xlsx
+++ b/src/com/data/Test Cases Plumbing.xlsx
@@ -896,46 +896,46 @@
     <t>Plumbing - Both Prof Cert</t>
   </si>
   <si>
-    <t>PL/SP/ST - Both</t>
-  </si>
-  <si>
-    <t>PL/SP/ST - Both Prof Cert</t>
-  </si>
-  <si>
-    <t>PL/SP/ST - Legalization</t>
-  </si>
-  <si>
-    <t>PL/SP/ST - Legalization Prof Cert</t>
-  </si>
-  <si>
-    <t>PL/SP/ST - New</t>
-  </si>
-  <si>
-    <t>PL/SP/ST - New Prof Cert</t>
-  </si>
-  <si>
     <t>Sprinklers - Both</t>
   </si>
   <si>
     <t>Sprinklers - Both Prof Cert</t>
   </si>
   <si>
-    <t>PL/SP/ST Legalization</t>
+    <t>PL/SP/SD Legalization</t>
   </si>
   <si>
-    <t>PL/SP/ST Legalization Prof Cert</t>
+    <t>PL/SP/SD Legalization Prof Cert</t>
   </si>
   <si>
-    <t>PL/SP/ST new</t>
+    <t>PL/SP/SD new</t>
   </si>
   <si>
-    <t>PL/SP/ST Both</t>
+    <t>PL/SP/SD - Both</t>
   </si>
   <si>
-    <t>PL/SP/ST Both Prof Cert</t>
+    <t>PL/SP/SD - Both Prof Cert</t>
   </si>
   <si>
-    <t>PL/SP/ST New Prof Cert</t>
+    <t>PL/SP/SD - Legalization</t>
+  </si>
+  <si>
+    <t>PL/SP/SD - Legalization Prof Cert</t>
+  </si>
+  <si>
+    <t>PL/SP/SD - New</t>
+  </si>
+  <si>
+    <t>PL/SP/SD - New Prof Cert</t>
+  </si>
+  <si>
+    <t>PL/SP/SD Both</t>
+  </si>
+  <si>
+    <t>PL/SP/SD Both Prof Cert</t>
+  </si>
+  <si>
+    <t>PL/SP/SD New Prof Cert</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +2838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B92" sqref="B92"/>
+      <selection pane="topRight" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>7</v>
@@ -3979,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>157</v>
@@ -4599,7 +4599,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>7</v>
@@ -7915,7 +7915,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>7</v>
@@ -8415,7 +8415,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>157</v>
@@ -8915,7 +8915,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>7</v>
@@ -9415,7 +9415,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>157</v>
@@ -9915,7 +9915,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>7</v>
@@ -10415,7 +10415,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C69" s="39" t="s">
         <v>157</v>
@@ -11915,7 +11915,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>7</v>
@@ -12415,7 +12415,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>157</v>
@@ -13915,7 +13915,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>7</v>
@@ -15915,7 +15915,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C113" s="21" t="s">
         <v>7</v>
@@ -16409,7 +16409,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C117" s="39" t="s">
         <v>157</v>
